--- a/biology/Histoire de la zoologie et de la botanique/Louis_Germain_(malacologiste)/Louis_Germain_(malacologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Germain_(malacologiste)/Louis_Germain_(malacologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Louis Pierre Germain (8 janvier 1878 à Niort en France - 18 octobre 1942 à Angers en France) est un malacologiste français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Germain est le fils de Pierre Benjamin Germain, et de Mathilde Elisa Gazeau.
-Instituteur, il complète ses études à Angers puis à Paris. Diplômé d’une licence en sciences (1904) puis d’un doctorat en sciences (1907), il entre au laboratoire des mollusques, vers et zoophytes du Muséum national d'histoire naturelle dirigée alors par Louis Joubin (1861-1935). Après avoir exercé diverses fonctions, il remplace ce dernier après sa mort. À la suite de la démission de Paul Lemoine (1878-1940), il est désigné pour lui succéder à la tête du Muséum ; toutefois, sa désignation ayant été contestée, la nomination sera retardée de quelques semaines[1]. Il dirige ensuite le Muséum de 1936 à 1942.
+Instituteur, il complète ses études à Angers puis à Paris. Diplômé d’une licence en sciences (1904) puis d’un doctorat en sciences (1907), il entre au laboratoire des mollusques, vers et zoophytes du Muséum national d'histoire naturelle dirigée alors par Louis Joubin (1861-1935). Après avoir exercé diverses fonctions, il remplace ce dernier après sa mort. À la suite de la démission de Paul Lemoine (1878-1940), il est désigné pour lui succéder à la tête du Muséum ; toutefois, sa désignation ayant été contestée, la nomination sera retardée de quelques semaines. Il dirige ensuite le Muséum de 1936 à 1942.
 Germain se consacre presque exclusivement aux mollusques qu’il aborde à travers leur systématique, comme de leur biologie ou de leur anatomie. Il dirige Faune et flore de la Méditerranée qui paraît en deux volumes en 1927 (invertébrés) et 1942 (vertébrés).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1903 : « Étude sur les mollusques terrestres et fluviatiles vivants des environs d'Angers et du département de Maine-et-Loire », Bulletin de la Société des sciences naturelles de l'Ouest de la France : 121 p. + 2 pl.
 1913 : Chétognathes dans la Deuxième expédition antarctique française (1908-1910) par Jean Charco, Masson (Paris) : 87-104.
@@ -587,7 +603,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Jaussaud &amp; Édouard R. Brygoo (2004). Du Jardin au Muséum en 516 biographies. Muséum national d’histoire naturelle de Paris : 630 p.  (ISBN 2-85653-565-8)
 ↑ Jean Zay, Souvenirs et solitude (2004), p. 275-277.
